--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enthropy\Desktop\testask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552D3088-6DCC-4CF0-8091-4EE9DE199FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D62F9E-41CB-46DB-8F8E-F407078C3067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1171,6 +1171,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1455,8 +1464,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1541,7 +1550,7 @@
       <c r="A5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1568,7 +1577,7 @@
       <c r="A6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1611,7 +1620,7 @@
       <c r="A8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1640,7 +1649,7 @@
       <c r="A9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1667,7 +1676,7 @@
       <c r="A10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1694,7 +1703,7 @@
       <c r="A11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1734,7 +1743,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1818,7 +1827,7 @@
       <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1845,7 +1854,7 @@
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1872,7 +1881,7 @@
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1901,7 +1910,7 @@
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1930,7 +1939,7 @@
       <c r="A9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1957,7 +1966,7 @@
       <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1984,7 +1993,7 @@
       <c r="A11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2027,7 +2036,7 @@
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2056,7 +2065,7 @@
       <c r="A14" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2085,7 +2094,7 @@
       <c r="A15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2114,7 +2123,7 @@
       <c r="A16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2141,7 +2150,7 @@
       <c r="A17" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -2170,7 +2179,7 @@
       <c r="A18" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2199,7 +2208,7 @@
       <c r="A19" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -2226,7 +2235,7 @@
       <c r="A20" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -2292,8 +2301,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2387,7 @@
       <c r="A5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2407,7 +2416,7 @@
       <c r="A6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2449,7 +2458,7 @@
       <c r="A8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
